--- a/backend/importData/rightsSectionTable.xlsx
+++ b/backend/importData/rightsSectionTable.xlsx
@@ -27,9 +27,6 @@
     <t>code</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>remarks</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   </si>
   <si>
     <t>Admin</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,10 +436,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -447,7 +447,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -455,7 +455,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -463,7 +463,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -471,7 +471,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -479,7 +479,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -487,7 +487,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -495,7 +495,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -503,7 +503,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -511,7 +511,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -519,7 +519,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -527,7 +527,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -535,10 +535,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
         <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -546,10 +546,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -557,7 +557,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -565,10 +565,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
         <v>18</v>
-      </c>
-      <c r="C16" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
